--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCAMRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\TCAMRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="EIA Table 2.13" sheetId="3" r:id="rId3"/>
     <sheet name="TCAMRB" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
@@ -97,10 +97,6 @@
     <t>Exports</t>
   </si>
   <si>
-    <t>Sources: National Energy Board of Canada; DOE, Office of Electricity Delivery and Energy Reliability, Form OE-781R, 'Annual Report of International Electric Export/Import Data,' predecessor forms.
-To estimate electricity trade with Mexico, for 2001 forward data from the California Independent System Operator are used in combination with the Form OE-781R values.</t>
-  </si>
-  <si>
     <t>Mexico and Canada Imports and Exports</t>
   </si>
   <si>
@@ -116,12 +112,6 @@
     <t>Table 2.13</t>
   </si>
   <si>
-    <t>I cannot find any source that explicitly provides the capacity of transmission lines</t>
-  </si>
-  <si>
-    <t>to/from Canada.  The closest I can find is a diagram showing the voltage ratings</t>
-  </si>
-  <si>
     <t>of the 37 main interconnections between the U.S. and Canada in kV.</t>
   </si>
   <si>
@@ -155,10 +145,20 @@
     <t>Table 2.14.  Electric Power Industry - U.S. Electricity Imports from and Electricity Exports to Canada</t>
   </si>
   <si>
-    <t>and Mexico, 2007-2017 (Megawatthours)</t>
-  </si>
-  <si>
     <t>Transmission Capacity Across Modeled Region Border (MW)</t>
+  </si>
+  <si>
+    <t>Notes: As of November 2017, the data for 2016 and going forward will be published using data from the Form EIA-111, "Quarterly Electricity Imports and Exports Report." During 2013-2015, EIA revised its approach to estimating imports from Mexico.
+Sources: 2016, U.S. Energy Information Administration, Form EIA-111, "Quarterly Electricity Imports and Exports Report"; 2006-2015 data, National Energy Board of Canada; FERC 714, Annual Electric Balancing Authority Area and Planning Report; California Energy Commission; and EIA estimates.</t>
+  </si>
+  <si>
+    <t>and Mexico, 2008-2018 (Megawatthours)</t>
+  </si>
+  <si>
+    <t>We cannot find any source that explicitly provides the capacity of transmission lines</t>
+  </si>
+  <si>
+    <t>to/from Canada.  The closest we can find is a diagram showing the voltage ratings</t>
   </si>
 </sst>
 </file>
@@ -245,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -294,20 +294,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -340,9 +331,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -658,7 +646,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -707,32 +695,32 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +734,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -819,70 +807,70 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="12">
-        <f>SUM('EIA Table 2.13'!D8:E10)</f>
+        <f>SUM('EIA Table 2.13'!D7:E9)</f>
         <v>5707778</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="12">
-        <f>SUM('EIA Table 2.13'!B8:C10)</f>
+        <f>SUM('EIA Table 2.13'!B7:C9)</f>
         <v>197082568</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="14">
         <f>B8*(B22/B21)</f>
@@ -902,7 +890,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -913,7 +901,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -923,32 +911,32 @@
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
@@ -975,260 +963,260 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="10">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B5" s="11">
-        <v>50118056</v>
+        <v>55731229</v>
       </c>
       <c r="C5" s="11">
-        <v>19559417</v>
+        <v>23614158</v>
       </c>
       <c r="D5" s="11">
-        <v>1277646</v>
+        <v>1288152</v>
       </c>
       <c r="E5" s="11">
-        <v>584175</v>
+        <v>584001</v>
       </c>
       <c r="F5" s="11">
-        <v>51395702</v>
+        <v>57019381</v>
       </c>
       <c r="G5" s="11">
-        <v>20143592</v>
+        <v>24198159</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B6" s="11">
-        <v>55731229</v>
+        <v>50870451</v>
       </c>
       <c r="C6" s="11">
-        <v>23614158</v>
+        <v>17517112</v>
       </c>
       <c r="D6" s="11">
-        <v>1288152</v>
+        <v>1320144</v>
       </c>
       <c r="E6" s="11">
-        <v>584001</v>
+        <v>620872</v>
       </c>
       <c r="F6" s="11">
-        <v>57019381</v>
+        <v>52190595</v>
       </c>
       <c r="G6" s="11">
-        <v>24198159</v>
+        <v>18137984</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="10">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B7" s="11">
-        <v>50870451</v>
+        <v>43763091</v>
       </c>
       <c r="C7" s="11">
-        <v>17517112</v>
+        <v>18481678</v>
       </c>
       <c r="D7" s="11">
-        <v>1320144</v>
+        <v>1320095</v>
       </c>
       <c r="E7" s="11">
-        <v>620872</v>
+        <v>624502</v>
       </c>
       <c r="F7" s="11">
-        <v>52190595</v>
+        <v>45083186</v>
       </c>
       <c r="G7" s="11">
-        <v>18137984</v>
+        <v>19106180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="10">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B8" s="11">
-        <v>43763091</v>
+        <v>51075952</v>
       </c>
       <c r="C8" s="11">
-        <v>18481678</v>
+        <v>14398470</v>
       </c>
       <c r="D8" s="11">
-        <v>1320095</v>
+        <v>1223758</v>
       </c>
       <c r="E8" s="11">
-        <v>624502</v>
+        <v>650082</v>
       </c>
       <c r="F8" s="11">
-        <v>45083186</v>
+        <v>52299710</v>
       </c>
       <c r="G8" s="11">
-        <v>19106180</v>
+        <v>15048552</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B9" s="11">
-        <v>51075952</v>
+        <v>57971110</v>
       </c>
       <c r="C9" s="11">
-        <v>14398470</v>
+        <v>11392267</v>
       </c>
       <c r="D9" s="11">
-        <v>1223758</v>
+        <v>1285959</v>
       </c>
       <c r="E9" s="11">
-        <v>650082</v>
+        <v>603382</v>
       </c>
       <c r="F9" s="11">
-        <v>52299710</v>
+        <v>59257069</v>
       </c>
       <c r="G9" s="11">
-        <v>15048552</v>
+        <v>11995649</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B10" s="11">
-        <v>57971110</v>
+        <v>62739038</v>
       </c>
       <c r="C10" s="11">
-        <v>11392267</v>
+        <v>10694907</v>
       </c>
       <c r="D10" s="11">
-        <v>1285959</v>
+        <v>6207597</v>
       </c>
       <c r="E10" s="11">
-        <v>603382</v>
+        <v>678300</v>
       </c>
       <c r="F10" s="11">
-        <v>59257069</v>
+        <v>68946635</v>
       </c>
       <c r="G10" s="11">
-        <v>11995649</v>
+        <v>11373207</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B11" s="11">
-        <v>62739038</v>
+        <v>59369660</v>
       </c>
       <c r="C11" s="11">
-        <v>10694907</v>
+        <v>12860889</v>
       </c>
       <c r="D11" s="11">
-        <v>6207597</v>
+        <v>7140624</v>
       </c>
       <c r="E11" s="11">
-        <v>678300</v>
+        <v>437364</v>
       </c>
       <c r="F11" s="11">
-        <v>68946635</v>
+        <v>66510284</v>
       </c>
       <c r="G11" s="11">
-        <v>11373207</v>
+        <v>13298253</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B12" s="11">
-        <v>59369660</v>
+        <v>68462277</v>
       </c>
       <c r="C12" s="11">
-        <v>12860889</v>
+        <v>8707873</v>
       </c>
       <c r="D12" s="11">
-        <v>7140624</v>
+        <v>7308192</v>
       </c>
       <c r="E12" s="11">
-        <v>437364</v>
+        <v>392016</v>
       </c>
       <c r="F12" s="11">
-        <v>66510284</v>
+        <v>75770469</v>
       </c>
       <c r="G12" s="11">
-        <v>13298253</v>
+        <v>9099889</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B13" s="11">
-        <v>68462277</v>
+        <v>65173818</v>
       </c>
       <c r="C13" s="11">
-        <v>8707873</v>
+        <v>2682381</v>
       </c>
       <c r="D13" s="11">
-        <v>7308192</v>
+        <v>7542445</v>
       </c>
       <c r="E13" s="11">
-        <v>392016</v>
+        <v>3531636</v>
       </c>
       <c r="F13" s="11">
-        <v>75770469</v>
+        <v>72716263</v>
       </c>
       <c r="G13" s="11">
-        <v>9099889</v>
+        <v>6214017</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B14" s="11">
-        <v>65173818</v>
+        <v>59909320</v>
       </c>
       <c r="C14" s="11">
-        <v>2682381</v>
+        <v>3312798</v>
       </c>
       <c r="D14" s="11">
-        <v>7542445</v>
+        <v>5775597</v>
       </c>
       <c r="E14" s="11">
-        <v>3531636</v>
+        <v>6058005</v>
       </c>
       <c r="F14" s="11">
-        <v>72716263</v>
+        <v>65684917</v>
       </c>
       <c r="G14" s="11">
-        <v>6214017</v>
+        <v>9370803</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="10">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B15" s="11">
-        <v>59909320</v>
+        <v>51494627</v>
       </c>
       <c r="C15" s="11">
-        <v>3312798</v>
+        <v>7290070</v>
       </c>
       <c r="D15" s="11">
-        <v>5775597</v>
+        <v>6765975</v>
       </c>
       <c r="E15" s="11">
-        <v>6058005</v>
+        <v>6514422</v>
       </c>
       <c r="F15" s="11">
-        <v>65684917</v>
+        <v>58260602</v>
       </c>
       <c r="G15" s="11">
-        <v>9370803</v>
+        <v>13804492</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1265,7 +1253,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">

--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\elec\TCAMRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Documents\eps-eu\InputData\elec\TCAMRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA364E78-81FB-4128-918D-67272F55E7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D4762-B7F8-4672-8095-CF0D669912C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42015" yWindow="3765" windowWidth="23040" windowHeight="15630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27645" yWindow="2430" windowWidth="22920" windowHeight="13515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>TCAMRB Transmission Capacity Across Modeled Region Border</t>
   </si>
@@ -215,6 +215,30 @@
   </si>
   <si>
     <t>Color Key:</t>
+  </si>
+  <si>
+    <t>UK - France</t>
+  </si>
+  <si>
+    <t>UK - Netherlands</t>
+  </si>
+  <si>
+    <t>UK - Ireland (East-West)</t>
+  </si>
+  <si>
+    <t>UK - Ireland (North-South)</t>
+  </si>
+  <si>
+    <t>UK - Belgium</t>
+  </si>
+  <si>
+    <t>Source: https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1086528/Electricity_interconnectors_in_the_UK_since_2010.pdf</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1086528/Electricity_interconnectors_in_the_UK_since_2010.pdf</t>
   </si>
 </sst>
 </file>
@@ -284,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD7FC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -433,6 +463,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,6 +474,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFD7FC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -821,24 +860,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="2" width="70.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="70.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -846,94 +885,104 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B25" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="27" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B28" s="27" t="s">
         <v>53</v>
       </c>
     </row>
@@ -945,19 +994,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB4BE75-28F8-4FCD-BCD3-D03583A5B8BF}">
-  <dimension ref="B2:T39"/>
+  <dimension ref="B2:T46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -968,7 +1017,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1035,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1053,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1071,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1040,7 +1089,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
@@ -1058,15 +1107,31 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="7">
         <v>2094</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="E8" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1074,7 +1139,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -1093,7 +1158,7 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
@@ -1101,7 +1166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1174,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1189,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="17"/>
     </row>
-    <row r="15" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1204,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="17"/>
     </row>
-    <row r="16" spans="2:20" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:20" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
@@ -1154,7 +1219,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="17"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
@@ -1169,7 +1234,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="17"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1249,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
@@ -1199,7 +1264,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
         <v>23</v>
       </c>
@@ -1214,7 +1279,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="17"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1229,7 +1294,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="17"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1244,7 +1309,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="17"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1324,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="17"/>
     </row>
-    <row r="24" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
@@ -1275,13 +1340,13 @@
       <c r="S24" s="22"/>
       <c r="T24" s="21"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -1289,7 +1354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="14" t="s">
         <v>32</v>
       </c>
@@ -1298,7 +1363,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="14" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1371,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
         <v>51</v>
       </c>
@@ -1314,7 +1379,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:20" s="24" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B30" s="23" t="s">
         <v>40</v>
       </c>
@@ -1323,7 +1388,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>35</v>
       </c>
@@ -1331,7 +1396,7 @@
         <v>5971</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
         <v>37</v>
       </c>
@@ -1339,7 +1404,7 @@
         <v>8357</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="20" t="s">
         <v>38</v>
       </c>
@@ -1347,7 +1412,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B35" s="20" t="s">
         <v>39</v>
       </c>
@@ -1355,7 +1420,7 @@
         <v>12293</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>40</v>
       </c>
@@ -1364,13 +1429,74 @@
         <v>30578</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="29" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="31">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="5">
+        <f>SUM(C38:C43)</f>
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="37" x14ac:dyDescent="0.45">
+      <c r="B46" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="30">
-        <f>C24+C30</f>
-        <v>46826</v>
+      <c r="C46" s="30">
+        <f>C24+C30+C44</f>
+        <v>52866</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1504,7 @@
     <hyperlink ref="E10" r:id="rId1" xr:uid="{EEE263E4-EA68-4FBA-901A-F85AB7C45764}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -1391,23 +1517,23 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:D41"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>'Calculations '!C39</f>
-        <v>46826</v>
+        <f>'Calculations '!C46</f>
+        <v>52866</v>
       </c>
     </row>
   </sheetData>
